--- a/biology/Médecine/Balai_mécanique/Balai_mécanique.xlsx
+++ b/biology/Médecine/Balai_mécanique/Balai_mécanique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Balai_m%C3%A9canique</t>
+          <t>Balai_mécanique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le balai mécanique est un objet servant à nettoyer les moquettes et les tapis grâce à un système de brosses horizontales. Il comporte un réservoir plat vers lequel les poussières sont envoyées par les brosses, actionnées par le mouvement du balai sur le sol. Il a précédé la popularisation des aspirateurs.
-Un balai mécanique se compose généralement d'une petite boîte. La base de la boîte a des rouleaux et des brosses, reliés par une courroie ou des engrenages. Il y a aussi un conteneur pour la saleté. La disposition est telle que, lorsqu'ils sont poussés sur un sol, les rouleaux tournent et forcent les brosses à tourner. Les brosses balayent la saleté et la poussière du sol dans le conteneur. Les balayeuses à tapis ont souvent un réglage en hauteur qui leur permet de travailler sur différentes longueurs de tapis ou de sols nus. La balayeuse a généralement un long manche pour pouvoir la pousser sans se pencher[1].
+Un balai mécanique se compose généralement d'une petite boîte. La base de la boîte a des rouleaux et des brosses, reliés par une courroie ou des engrenages. Il y a aussi un conteneur pour la saleté. La disposition est telle que, lorsqu'ils sont poussés sur un sol, les rouleaux tournent et forcent les brosses à tourner. Les brosses balayent la saleté et la poussière du sol dans le conteneur. Les balayeuses à tapis ont souvent un réglage en hauteur qui leur permet de travailler sur différentes longueurs de tapis ou de sols nus. La balayeuse a généralement un long manche pour pouvoir la pousser sans se pencher.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Balai_m%C3%A9canique</t>
+          <t>Balai_mécanique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le balai mécanique a été inventé par Melville Reuben Bissell (en), de Grand Rapids (Michigan), qui en a déposé le brevet en 1876 aux États-Unis[2]. Bissell a commencé à en vendre en 1883 (d'où le nom de « balai Bissell » parfois donné à cet objet).
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le balai mécanique a été inventé par Melville Reuben Bissell (en), de Grand Rapids (Michigan), qui en a déposé le brevet en 1876 aux États-Unis. Bissell a commencé à en vendre en 1883 (d'où le nom de « balai Bissell » parfois donné à cet objet).
 Une des premières apparitions d'un balai mécanique au cinéma a eu lieu dans le film Charlot dentiste en 1914.
 </t>
         </is>
